--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931024.0825977839</v>
+        <v>927290.9732408873</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5945946.6745984</v>
+        <v>5945946.674598396</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4473695.2241669</v>
+        <v>4473695.224166902</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>29.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488437</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>36.39025468426208</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="I4" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T6" t="n">
+        <v>36.39025468426208</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="U6" t="n">
-        <v>36.39025468426209</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="7">
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="T7" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1217,67 +1217,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="G9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,16 +1296,16 @@
         <v>41.31500304752735</v>
       </c>
       <c r="D10" t="n">
-        <v>15.18661160258025</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>15.18661160258025</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>204.7168792811802</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>333.3838141281609</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>86.2743250078031</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>150.6717294556372</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,7 +1587,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>143.772187987724</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>367.166828324009</v>
       </c>
     </row>
     <row r="15">
@@ -1770,19 +1770,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>48.49441757815001</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>49.34995949258573</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1827,7 +1827,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>249.3689420865922</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1900,13 +1900,13 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>190.9597718642782</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>35.77164440601872</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>23.92542949176419</v>
       </c>
       <c r="H19" t="n">
         <v>131.0206200144773</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>305.2929150998948</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>361.4649050157276</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
@@ -2247,16 +2247,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>37.64499605673879</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2295,13 +2295,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>214.5646102646769</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>338.6708669025015</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>395.5076644073176</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>358.1922613680549</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2554,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>430.2406153331356</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>408.8852157625942</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2605,19 +2605,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
@@ -2733,7 +2733,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>197.1456123775854</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -2851,13 +2851,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>119.6138595562251</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2970,7 +2970,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>368.8235096752433</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>92.95803227999264</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>153.2284186373416</v>
       </c>
       <c r="D35" t="n">
-        <v>372.9042785765913</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -3432,19 +3432,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.573051550003461</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6027656317444</v>
+        <v>207.6516716748276</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>128.3640563204295</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>400.2521725514251</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,25 +3663,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>18.58065792654885</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
@@ -3745,10 +3745,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3793,13 +3793,13 @@
         <v>40.061706087351</v>
       </c>
       <c r="T41" t="n">
-        <v>207.3476883602337</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>109.5540470185009</v>
       </c>
     </row>
     <row r="42">
@@ -3900,13 +3900,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>31.6677553097647</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
@@ -3960,13 +3960,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>119.8461174193189</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>405.345066814282</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>40.06170608735101</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>143.4254984568475</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>133.5590299204432</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>5.459195474497328</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4152,10 +4152,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4194,7 +4194,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4315,7 @@
         <v>56.86656659549121</v>
       </c>
       <c r="E2" t="n">
-        <v>27.13222579419044</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F2" t="n">
         <v>3.305200243802188</v>
@@ -4336,19 +4336,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="L2" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M2" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N2" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O2" t="n">
-        <v>124.3581591730573</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P2" t="n">
-        <v>124.3581591730573</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q2" t="n">
         <v>124.3581591730573</v>
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C3" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D3" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E3" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F3" t="n">
         <v>3.305200243802188</v>
@@ -4409,28 +4409,28 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J3" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="K3" t="n">
-        <v>42.55445313895319</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="M3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="N3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="O3" t="n">
+        <v>70.27072642131186</v>
+      </c>
+      <c r="P3" t="n">
         <v>83.45630615600527</v>
       </c>
-      <c r="M3" t="n">
+      <c r="Q3" t="n">
         <v>124.3581591730573</v>
-      </c>
-      <c r="N3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="O3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="P3" t="n">
-        <v>165.2600121901094</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>165.2600121901094</v>
       </c>
       <c r="R3" t="n">
         <v>165.2600121901094</v>
@@ -4445,16 +4445,16 @@
         <v>165.2600121901094</v>
       </c>
       <c r="V3" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W3" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X3" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="C4" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D4" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E4" t="n">
-        <v>102.1098645848476</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="F4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G4" t="n">
-        <v>60.37753827421391</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H4" t="n">
-        <v>18.64521196358022</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I4" t="n">
         <v>3.305200243802188</v>
@@ -4491,19 +4491,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="M4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="N4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="O4" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="P4" t="n">
         <v>124.3581591730573</v>
@@ -4515,25 +4515,25 @@
         <v>143.8421908954813</v>
       </c>
       <c r="S4" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="T4" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="Y4" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>122.8380161568153</v>
+        <v>122.8380161568152</v>
       </c>
       <c r="C5" t="n">
-        <v>88.73594738064263</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D5" t="n">
-        <v>56.86656659549121</v>
+        <v>56.86656659549116</v>
       </c>
       <c r="E5" t="n">
         <v>27.13222579419039</v>
@@ -4570,25 +4570,25 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K5" t="n">
-        <v>85.10890627790634</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="L5" t="n">
-        <v>126.0107592949584</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="M5" t="n">
-        <v>165.2600121901094</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="N5" t="n">
-        <v>165.2600121901094</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="O5" t="n">
-        <v>165.2600121901094</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="P5" t="n">
-        <v>165.2600121901094</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R5" t="n">
         <v>165.2600121901094</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H6" t="n">
         <v>3.305200243802188</v>
@@ -4646,22 +4646,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="J6" t="n">
-        <v>70.27072642131186</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="K6" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="L6" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="M6" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="N6" t="n">
-        <v>83.45630615600527</v>
+        <v>29.36887340425979</v>
       </c>
       <c r="O6" t="n">
-        <v>83.45630615600527</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P6" t="n">
         <v>83.45630615600527</v>
@@ -4676,22 +4676,22 @@
         <v>123.5276858794757</v>
       </c>
       <c r="T6" t="n">
-        <v>81.79535956884203</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="U6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="V6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="W6" t="n">
-        <v>45.03752655443588</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X6" t="n">
         <v>45.03752655443588</v>
       </c>
       <c r="Y6" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="7">
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="C7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="D7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="E7" t="n">
         <v>86.76985286506957</v>
@@ -4728,19 +4728,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>44.20705326085427</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>83.45630615600527</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="M7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="N7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="O7" t="n">
-        <v>124.3581591730573</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="P7" t="n">
         <v>124.3581591730573</v>
@@ -4755,22 +4755,22 @@
         <v>102.1098645848476</v>
       </c>
       <c r="T7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="U7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="X7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.76985286506957</v>
+        <v>102.1098645848476</v>
       </c>
     </row>
     <row r="8">
@@ -4804,22 +4804,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="L8" t="n">
-        <v>3.305200243802188</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="M8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="N8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="O8" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="P8" t="n">
         <v>83.45630615600527</v>
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>128.5021791757032</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
         <v>3.305200243802188</v>
@@ -4886,22 +4886,22 @@
         <v>29.36887340425979</v>
       </c>
       <c r="K9" t="n">
-        <v>29.36887340425979</v>
+        <v>70.27072642131186</v>
       </c>
       <c r="L9" t="n">
-        <v>29.36887340425979</v>
+        <v>111.1725794383639</v>
       </c>
       <c r="M9" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N9" t="n">
-        <v>29.36887340425979</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O9" t="n">
-        <v>42.55445313895319</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P9" t="n">
-        <v>83.45630615600527</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q9" t="n">
         <v>124.3581591730573</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901094</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901094</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901094</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901094</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>143.8421908954813</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="C10" t="n">
-        <v>102.1098645848476</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D10" t="n">
-        <v>86.76985286506957</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F10" t="n">
-        <v>45.03752655443588</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>42.55445313895319</v>
       </c>
       <c r="K10" t="n">
-        <v>85.10890627790634</v>
+        <v>83.45630615600527</v>
       </c>
       <c r="L10" t="n">
-        <v>126.0107592949584</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="M10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="N10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="O10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="P10" t="n">
-        <v>165.2600121901094</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4995,19 +4995,19 @@
         <v>143.8421908954813</v>
       </c>
       <c r="U10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="V10" t="n">
-        <v>143.8421908954813</v>
+        <v>102.1098645848476</v>
       </c>
       <c r="W10" t="n">
-        <v>143.8421908954813</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="X10" t="n">
-        <v>143.8421908954813</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="Y10" t="n">
-        <v>143.8421908954813</v>
+        <v>45.03752655443588</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.2588091910869</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C11" t="n">
-        <v>483.1163363745102</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895473</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895473</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>2153.54285090109</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W11" t="n">
-        <v>1748.687396312123</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X11" t="n">
-        <v>1329.544932891434</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="Y11" t="n">
-        <v>921.2588091910869</v>
+        <v>744.7955325958366</v>
       </c>
     </row>
     <row r="12">
@@ -5111,31 +5111,31 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043098</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987881</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O12" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P12" t="n">
         <v>1488.088567599445</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.0372729147111</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C13" t="n">
-        <v>730.4755613979361</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D13" t="n">
-        <v>564.5975685994588</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="E13" t="n">
-        <v>394.839564850196</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F13" t="n">
-        <v>242.6458987333908</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>393.4422361027634</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>935.5229194890223</v>
       </c>
       <c r="M13" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1839.693721399886</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1567.667316986178</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1322.27556231959</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y13" t="n">
-        <v>1094.855891633698</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1744.26120212753</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C14" t="n">
-        <v>1744.26120212753</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.351417301975</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E14" t="n">
-        <v>874.5766724602698</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G14" t="n">
         <v>47.20655154895472</v>
@@ -5275,16 +5275,16 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.406501800135</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435803</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867018</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916848</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U14" t="n">
-        <v>1889.485634438362</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V14" t="n">
-        <v>1889.485634438362</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W14" t="n">
-        <v>1889.485634438362</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X14" t="n">
-        <v>1889.485634438362</v>
+        <v>1284.092038121989</v>
       </c>
       <c r="Y14" t="n">
-        <v>1889.485634438362</v>
+        <v>913.2164539563237</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5354,7 +5354,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043101</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
         <v>175.3166270668981</v>
@@ -5372,7 +5372,7 @@
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.0817647851411</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C16" t="n">
-        <v>443.520053268366</v>
+        <v>571.1199191863094</v>
       </c>
       <c r="D16" t="n">
-        <v>443.520053268366</v>
+        <v>405.2419263878321</v>
       </c>
       <c r="E16" t="n">
-        <v>273.7620495191033</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>97.0549954808595</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895472</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895472</v>
@@ -5439,13 +5439,13 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>997.5438780199984</v>
       </c>
       <c r="N16" t="n">
         <v>1539.854607180194</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856608</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.32005419002</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.9003835041283</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1188.845320663326</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C17" t="n">
-        <v>750.7028478467491</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D17" t="n">
-        <v>750.7028478467491</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
@@ -5515,13 +5515,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435801</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.324927422801</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867016</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5548,19 +5548,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V17" t="n">
-        <v>1849.01926465316</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W17" t="n">
-        <v>1849.01926465316</v>
+        <v>1552.584347616706</v>
       </c>
       <c r="X17" t="n">
-        <v>1849.01926465316</v>
+        <v>1552.584347616706</v>
       </c>
       <c r="Y17" t="n">
-        <v>1440.733140952813</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="18">
@@ -5600,7 +5600,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
         <v>803.387703298788</v>
@@ -5655,13 +5655,13 @@
         <v>443.520053268366</v>
       </c>
       <c r="D19" t="n">
-        <v>407.3870791208724</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E19" t="n">
-        <v>407.3870791208724</v>
+        <v>443.520053268366</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>266.8129992301223</v>
       </c>
       <c r="G19" t="n">
         <v>242.6458987333908</v>
@@ -5682,13 +5682,13 @@
         <v>744.9929992049549</v>
       </c>
       <c r="M19" t="n">
-        <v>875.5973915434845</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818744</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2016.697670932565</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540313</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1229.635491110173</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C20" t="n">
-        <v>791.4930182935959</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D20" t="n">
-        <v>355.5832334680404</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E20" t="n">
-        <v>355.5832334680404</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F20" t="n">
-        <v>355.5832334680404</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895472</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H20" t="n">
         <v>47.20655154895472</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662533</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184047</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V20" t="n">
-        <v>2060.790516184047</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W20" t="n">
-        <v>1655.93506159508</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X20" t="n">
-        <v>1655.93506159508</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="Y20" t="n">
-        <v>1655.93506159508</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5828,7 +5828,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5837,7 +5837,7 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M21" t="n">
         <v>803.387703298788</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>663.4738450083632</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C22" t="n">
-        <v>490.9121334915882</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D22" t="n">
-        <v>325.0341406931109</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E22" t="n">
-        <v>287.0088921509505</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F22" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
@@ -5913,22 +5913,22 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>996.3673948223218</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M22" t="n">
-        <v>1580.548470240636</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N22" t="n">
-        <v>1708.047382044526</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O22" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5943,19 +5943,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774551</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="W22" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X22" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y22" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.786923289629</v>
+        <v>1171.377436848153</v>
       </c>
       <c r="C23" t="n">
-        <v>2030.786923289629</v>
+        <v>733.2349640315767</v>
       </c>
       <c r="D23" t="n">
-        <v>1594.877138464074</v>
+        <v>733.2349640315767</v>
       </c>
       <c r="E23" t="n">
-        <v>1161.102393622369</v>
+        <v>733.2349640315767</v>
       </c>
       <c r="F23" t="n">
-        <v>733.2349640315766</v>
+        <v>733.2349640315767</v>
       </c>
       <c r="G23" t="n">
-        <v>333.7322727110538</v>
+        <v>333.732272711054</v>
       </c>
       <c r="H23" t="n">
-        <v>64.0107212549642</v>
+        <v>64.01072125496437</v>
       </c>
       <c r="I23" t="n">
-        <v>135.2106715061448</v>
+        <v>135.210671506145</v>
       </c>
       <c r="J23" t="n">
-        <v>292.85744674959</v>
+        <v>728.1121342025082</v>
       </c>
       <c r="K23" t="n">
-        <v>529.1290971288108</v>
+        <v>1183.379347970226</v>
       </c>
       <c r="L23" t="n">
-        <v>1321.261772658993</v>
+        <v>1476.495222834127</v>
       </c>
       <c r="M23" t="n">
-        <v>1647.40966082778</v>
+        <v>1802.643111002914</v>
       </c>
       <c r="N23" t="n">
-        <v>1978.834962804257</v>
+        <v>2134.068412979392</v>
       </c>
       <c r="O23" t="n">
-        <v>2291.79047734555</v>
+        <v>2447.023927520684</v>
       </c>
       <c r="P23" t="n">
-        <v>2558.890768524819</v>
+        <v>2714.124218699953</v>
       </c>
       <c r="Q23" t="n">
-        <v>3083.859478464069</v>
+        <v>2914.705413711021</v>
       </c>
       <c r="R23" t="n">
-        <v>3200.53606274821</v>
+        <v>3200.536062748218</v>
       </c>
       <c r="S23" t="n">
-        <v>3160.069692963007</v>
+        <v>3160.069692963015</v>
       </c>
       <c r="T23" t="n">
-        <v>3160.069692963007</v>
+        <v>2948.298441432128</v>
       </c>
       <c r="U23" t="n">
-        <v>3160.069692963007</v>
+        <v>2689.227749953642</v>
       </c>
       <c r="V23" t="n">
-        <v>2797.452742896833</v>
+        <v>2326.610799887468</v>
       </c>
       <c r="W23" t="n">
-        <v>2392.597288307867</v>
+        <v>1921.755345298501</v>
       </c>
       <c r="X23" t="n">
-        <v>2392.597288307867</v>
+        <v>1921.755345298501</v>
       </c>
       <c r="Y23" t="n">
-        <v>2030.786923289629</v>
+        <v>1513.469221598155</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>559.3754747724003</v>
+        <v>559.3754747724004</v>
       </c>
       <c r="C24" t="n">
-        <v>452.9190136090425</v>
+        <v>452.9190136090427</v>
       </c>
       <c r="D24" t="n">
-        <v>357.8287247555958</v>
+        <v>357.8287247555959</v>
       </c>
       <c r="E24" t="n">
-        <v>263.7083100825495</v>
+        <v>263.7083100825496</v>
       </c>
       <c r="F24" t="n">
-        <v>180.3244716987111</v>
+        <v>180.3244716987112</v>
       </c>
       <c r="G24" t="n">
-        <v>95.95337128836795</v>
+        <v>95.95337128836812</v>
       </c>
       <c r="H24" t="n">
-        <v>64.0107212549642</v>
+        <v>64.01072125496437</v>
       </c>
       <c r="I24" t="n">
-        <v>98.22745742644031</v>
+        <v>98.22745742644044</v>
       </c>
       <c r="J24" t="n">
-        <v>192.1207967729074</v>
+        <v>192.1207967729076</v>
       </c>
       <c r="K24" t="n">
-        <v>352.5994688270776</v>
+        <v>352.5994688270778</v>
       </c>
       <c r="L24" t="n">
-        <v>568.3828477020999</v>
+        <v>568.3828477021001</v>
       </c>
       <c r="M24" t="n">
-        <v>820.1918730047973</v>
+        <v>820.1918730047976</v>
       </c>
       <c r="N24" t="n">
         <v>1078.665533926117</v>
@@ -6089,13 +6089,13 @@
         <v>1504.892737305454</v>
       </c>
       <c r="Q24" t="n">
-        <v>1631.751831513688</v>
+        <v>1631.751831513689</v>
       </c>
       <c r="R24" t="n">
         <v>1693.455285939601</v>
       </c>
       <c r="S24" t="n">
-        <v>1648.834255339335</v>
+        <v>1648.834255339336</v>
       </c>
       <c r="T24" t="n">
         <v>1522.742700214988</v>
@@ -6107,13 +6107,13 @@
         <v>1147.355345100869</v>
       </c>
       <c r="W24" t="n">
-        <v>962.0325908340626</v>
+        <v>962.0325908340628</v>
       </c>
       <c r="X24" t="n">
-        <v>807.1651550729426</v>
+        <v>807.1651550729428</v>
       </c>
       <c r="Y24" t="n">
-        <v>680.6793758521634</v>
+        <v>680.6793758521635</v>
       </c>
     </row>
     <row r="25">
@@ -6126,40 +6126,40 @@
         <v>1109.096010929641</v>
       </c>
       <c r="C25" t="n">
-        <v>936.5342994128656</v>
+        <v>936.5342994128658</v>
       </c>
       <c r="D25" t="n">
-        <v>770.6563066143883</v>
+        <v>770.6563066143885</v>
       </c>
       <c r="E25" t="n">
-        <v>600.8983028651256</v>
+        <v>600.8983028651257</v>
       </c>
       <c r="F25" t="n">
-        <v>424.1912488268819</v>
+        <v>424.191248826882</v>
       </c>
       <c r="G25" t="n">
-        <v>259.4500684394003</v>
+        <v>259.4500684394004</v>
       </c>
       <c r="H25" t="n">
-        <v>127.1060078187162</v>
+        <v>127.1060078187163</v>
       </c>
       <c r="I25" t="n">
-        <v>64.0107212549642</v>
+        <v>64.01072125496437</v>
       </c>
       <c r="J25" t="n">
-        <v>209.4960701218372</v>
+        <v>209.4960701218373</v>
       </c>
       <c r="K25" t="n">
-        <v>581.0546252605309</v>
+        <v>581.0546252605311</v>
       </c>
       <c r="L25" t="n">
-        <v>704.9254268788287</v>
+        <v>704.9254268788289</v>
       </c>
       <c r="M25" t="n">
-        <v>1295.013686398271</v>
+        <v>1295.013686398272</v>
       </c>
       <c r="N25" t="n">
-        <v>1864.771401359805</v>
+        <v>1864.771401359806</v>
       </c>
       <c r="O25" t="n">
         <v>2402.206531933349</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>929.0667459873472</v>
+        <v>1781.547892952165</v>
       </c>
       <c r="C26" t="n">
-        <v>494.4802658528668</v>
+        <v>1343.405420135588</v>
       </c>
       <c r="D26" t="n">
-        <v>494.4802658528668</v>
+        <v>907.4956353100329</v>
       </c>
       <c r="E26" t="n">
-        <v>60.705521011162</v>
+        <v>473.720890468328</v>
       </c>
       <c r="F26" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="G26" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="H26" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I26" t="n">
-        <v>131.9054712623426</v>
+        <v>131.9054712623428</v>
       </c>
       <c r="J26" t="n">
-        <v>289.5522465057878</v>
+        <v>724.8069339587059</v>
       </c>
       <c r="K26" t="n">
-        <v>729.158452883936</v>
+        <v>961.0785843379267</v>
       </c>
       <c r="L26" t="n">
-        <v>1480.389275397066</v>
+        <v>1254.194459201827</v>
       </c>
       <c r="M26" t="n">
-        <v>1806.537163565853</v>
+        <v>1580.342347370615</v>
       </c>
       <c r="N26" t="n">
-        <v>2137.96246554233</v>
+        <v>1911.767649347092</v>
       </c>
       <c r="O26" t="n">
-        <v>2450.917980083623</v>
+        <v>2224.723163888385</v>
       </c>
       <c r="P26" t="n">
-        <v>2718.018271262892</v>
+        <v>2491.823455067653</v>
       </c>
       <c r="Q26" t="n">
-        <v>2918.599466273959</v>
+        <v>2918.599466273968</v>
       </c>
       <c r="R26" t="n">
-        <v>3035.2760505581</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="S26" t="n">
-        <v>2994.809680772897</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="T26" t="n">
-        <v>2783.038429242009</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="U26" t="n">
-        <v>2523.967737763523</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="V26" t="n">
-        <v>2161.35078769735</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="W26" t="n">
-        <v>1756.495333108383</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="X26" t="n">
-        <v>1337.352869687694</v>
+        <v>2616.133587137419</v>
       </c>
       <c r="Y26" t="n">
-        <v>929.0667459873472</v>
+        <v>2207.847463437073</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>556.070274528598</v>
+        <v>556.0702745285982</v>
       </c>
       <c r="C27" t="n">
-        <v>449.6138133652403</v>
+        <v>449.6138133652405</v>
       </c>
       <c r="D27" t="n">
-        <v>354.5235245117936</v>
+        <v>354.5235245117938</v>
       </c>
       <c r="E27" t="n">
-        <v>260.4031098387473</v>
+        <v>260.4031098387475</v>
       </c>
       <c r="F27" t="n">
-        <v>177.0192714549089</v>
+        <v>177.0192714549091</v>
       </c>
       <c r="G27" t="n">
-        <v>92.64817104456574</v>
+        <v>92.64817104456593</v>
       </c>
       <c r="H27" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I27" t="n">
-        <v>94.92225718263811</v>
+        <v>94.9222571826383</v>
       </c>
       <c r="J27" t="n">
-        <v>188.8155965291052</v>
+        <v>188.8155965291054</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2942685832754</v>
+        <v>349.2942685832756</v>
       </c>
       <c r="L27" t="n">
-        <v>565.0776474582976</v>
+        <v>565.0776474582979</v>
       </c>
       <c r="M27" t="n">
-        <v>816.8866727609951</v>
+        <v>816.8866727609953</v>
       </c>
       <c r="N27" t="n">
         <v>1075.360333682315</v>
@@ -6332,7 +6332,7 @@
         <v>1690.150085695799</v>
       </c>
       <c r="S27" t="n">
-        <v>1645.529055095533</v>
+        <v>1645.529055095534</v>
       </c>
       <c r="T27" t="n">
         <v>1519.437499971186</v>
@@ -6341,16 +6341,16 @@
         <v>1343.167662795067</v>
       </c>
       <c r="V27" t="n">
-        <v>1144.050144857066</v>
+        <v>1144.050144857067</v>
       </c>
       <c r="W27" t="n">
-        <v>958.7273905902605</v>
+        <v>958.7273905902607</v>
       </c>
       <c r="X27" t="n">
-        <v>803.8599548291404</v>
+        <v>803.8599548291406</v>
       </c>
       <c r="Y27" t="n">
-        <v>677.3741756083612</v>
+        <v>677.3741756083614</v>
       </c>
     </row>
     <row r="28">
@@ -6363,46 +6363,46 @@
         <v>1105.790810685839</v>
       </c>
       <c r="C28" t="n">
-        <v>933.2290991690635</v>
+        <v>933.2290991690637</v>
       </c>
       <c r="D28" t="n">
-        <v>767.3511063705862</v>
+        <v>767.3511063705864</v>
       </c>
       <c r="E28" t="n">
-        <v>597.5931026213234</v>
+        <v>597.5931026213236</v>
       </c>
       <c r="F28" t="n">
-        <v>420.8860485830796</v>
+        <v>420.8860485830799</v>
       </c>
       <c r="G28" t="n">
-        <v>256.1448681955981</v>
+        <v>256.1448681955982</v>
       </c>
       <c r="H28" t="n">
-        <v>123.800807574914</v>
+        <v>123.8008075749141</v>
       </c>
       <c r="I28" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="J28" t="n">
-        <v>119.6111847133451</v>
+        <v>119.6111847133453</v>
       </c>
       <c r="K28" t="n">
-        <v>216.4112852809033</v>
+        <v>216.4112852809035</v>
       </c>
       <c r="L28" t="n">
-        <v>758.4919686671623</v>
+        <v>594.474967869899</v>
       </c>
       <c r="M28" t="n">
-        <v>1348.580228186605</v>
+        <v>1184.563227389342</v>
       </c>
       <c r="N28" t="n">
-        <v>1918.337943148139</v>
+        <v>1754.320942350876</v>
       </c>
       <c r="O28" t="n">
-        <v>2455.773073721682</v>
+        <v>2291.756072924419</v>
       </c>
       <c r="P28" t="n">
-        <v>2904.049023869707</v>
+        <v>2740.032023072444</v>
       </c>
       <c r="Q28" t="n">
         <v>2977.992069167432</v>
@@ -6420,7 +6420,7 @@
         <v>2329.402767300583</v>
       </c>
       <c r="V28" t="n">
-        <v>2042.447259171013</v>
+        <v>2042.447259171014</v>
       </c>
       <c r="W28" t="n">
         <v>1770.420854757305</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1163.704508629479</v>
+        <v>729.9297637877746</v>
       </c>
       <c r="C29" t="n">
-        <v>1163.704508629479</v>
+        <v>729.9297637877746</v>
       </c>
       <c r="D29" t="n">
-        <v>1163.704508629479</v>
+        <v>729.9297637877746</v>
       </c>
       <c r="E29" t="n">
-        <v>729.9297637877744</v>
+        <v>729.9297637877746</v>
       </c>
       <c r="F29" t="n">
-        <v>729.9297637877744</v>
+        <v>729.9297637877746</v>
       </c>
       <c r="G29" t="n">
-        <v>330.4270724672515</v>
+        <v>330.4270724672517</v>
       </c>
       <c r="H29" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I29" t="n">
-        <v>131.9054712623426</v>
+        <v>131.9054712623428</v>
       </c>
       <c r="J29" t="n">
-        <v>289.5522465057878</v>
+        <v>724.8069339587059</v>
       </c>
       <c r="K29" t="n">
-        <v>1040.783069018918</v>
+        <v>961.0785843379267</v>
       </c>
       <c r="L29" t="n">
-        <v>1480.389275397066</v>
+        <v>1254.194459201827</v>
       </c>
       <c r="M29" t="n">
-        <v>1806.537163565853</v>
+        <v>1580.342347370615</v>
       </c>
       <c r="N29" t="n">
-        <v>2137.96246554233</v>
+        <v>1911.767649347092</v>
       </c>
       <c r="O29" t="n">
-        <v>2450.917980083623</v>
+        <v>2224.723163888385</v>
       </c>
       <c r="P29" t="n">
-        <v>2718.018271262892</v>
+        <v>2491.823455067653</v>
       </c>
       <c r="Q29" t="n">
-        <v>2918.599466273959</v>
+        <v>2918.599466273968</v>
       </c>
       <c r="R29" t="n">
-        <v>3035.2760505581</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="S29" t="n">
-        <v>2994.809680772897</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="T29" t="n">
-        <v>2783.038429242009</v>
+        <v>2783.038429242018</v>
       </c>
       <c r="U29" t="n">
-        <v>2523.967737763523</v>
+        <v>2523.967737763532</v>
       </c>
       <c r="V29" t="n">
-        <v>2403.1456574037</v>
+        <v>2161.350787697359</v>
       </c>
       <c r="W29" t="n">
-        <v>1998.290202814734</v>
+        <v>1756.495333108392</v>
       </c>
       <c r="X29" t="n">
-        <v>1998.290202814734</v>
+        <v>1337.352869687702</v>
       </c>
       <c r="Y29" t="n">
-        <v>1590.004079114387</v>
+        <v>929.0667459873558</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>556.070274528598</v>
+        <v>556.0702745285982</v>
       </c>
       <c r="C30" t="n">
-        <v>449.6138133652403</v>
+        <v>449.6138133652406</v>
       </c>
       <c r="D30" t="n">
-        <v>354.5235245117936</v>
+        <v>354.5235245117938</v>
       </c>
       <c r="E30" t="n">
-        <v>260.4031098387473</v>
+        <v>260.4031098387475</v>
       </c>
       <c r="F30" t="n">
-        <v>177.0192714549089</v>
+        <v>177.0192714549091</v>
       </c>
       <c r="G30" t="n">
-        <v>92.64817104456574</v>
+        <v>92.64817104456594</v>
       </c>
       <c r="H30" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I30" t="n">
-        <v>94.92225718263811</v>
+        <v>94.9222571826383</v>
       </c>
       <c r="J30" t="n">
-        <v>188.8155965291052</v>
+        <v>188.8155965291054</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2942685832754</v>
+        <v>349.2942685832757</v>
       </c>
       <c r="L30" t="n">
-        <v>565.0776474582976</v>
+        <v>565.0776474582979</v>
       </c>
       <c r="M30" t="n">
-        <v>816.8866727609951</v>
+        <v>816.8866727609952</v>
       </c>
       <c r="N30" t="n">
         <v>1075.360333682315</v>
@@ -6569,7 +6569,7 @@
         <v>1690.150085695799</v>
       </c>
       <c r="S30" t="n">
-        <v>1645.529055095533</v>
+        <v>1645.529055095534</v>
       </c>
       <c r="T30" t="n">
         <v>1519.437499971186</v>
@@ -6578,16 +6578,16 @@
         <v>1343.167662795067</v>
       </c>
       <c r="V30" t="n">
-        <v>1144.050144857066</v>
+        <v>1144.050144857067</v>
       </c>
       <c r="W30" t="n">
-        <v>958.7273905902605</v>
+        <v>958.7273905902607</v>
       </c>
       <c r="X30" t="n">
-        <v>803.8599548291404</v>
+        <v>803.8599548291406</v>
       </c>
       <c r="Y30" t="n">
-        <v>677.3741756083612</v>
+        <v>677.3741756083614</v>
       </c>
     </row>
     <row r="31">
@@ -6600,43 +6600,43 @@
         <v>1105.790810685839</v>
       </c>
       <c r="C31" t="n">
-        <v>933.2290991690635</v>
+        <v>933.2290991690637</v>
       </c>
       <c r="D31" t="n">
-        <v>767.3511063705862</v>
+        <v>767.3511063705864</v>
       </c>
       <c r="E31" t="n">
-        <v>597.5931026213234</v>
+        <v>597.5931026213236</v>
       </c>
       <c r="F31" t="n">
-        <v>420.8860485830796</v>
+        <v>420.8860485830799</v>
       </c>
       <c r="G31" t="n">
-        <v>256.1448681955981</v>
+        <v>256.1448681955982</v>
       </c>
       <c r="H31" t="n">
-        <v>123.800807574914</v>
+        <v>123.8008075749141</v>
       </c>
       <c r="I31" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="J31" t="n">
-        <v>206.190869878035</v>
+        <v>140.3195965258594</v>
       </c>
       <c r="K31" t="n">
-        <v>577.7494250167287</v>
+        <v>511.8781516645532</v>
       </c>
       <c r="L31" t="n">
-        <v>941.9818618402405</v>
+        <v>1053.958835050812</v>
       </c>
       <c r="M31" t="n">
-        <v>1532.070121359683</v>
+        <v>1184.563227389342</v>
       </c>
       <c r="N31" t="n">
-        <v>2101.827836321217</v>
+        <v>1754.320942350876</v>
       </c>
       <c r="O31" t="n">
-        <v>2639.262966894761</v>
+        <v>2291.756072924419</v>
       </c>
       <c r="P31" t="n">
         <v>2740.032023072444</v>
@@ -6657,7 +6657,7 @@
         <v>2329.402767300583</v>
       </c>
       <c r="V31" t="n">
-        <v>2042.447259171013</v>
+        <v>2042.447259171014</v>
       </c>
       <c r="W31" t="n">
         <v>1770.420854757305</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1796.399953085791</v>
+        <v>1741.081523166962</v>
       </c>
       <c r="C32" t="n">
-        <v>1358.257480269215</v>
+        <v>1302.939050350386</v>
       </c>
       <c r="D32" t="n">
-        <v>922.3476954436591</v>
+        <v>867.02926552483</v>
       </c>
       <c r="E32" t="n">
-        <v>488.5729506019542</v>
+        <v>433.2545206831251</v>
       </c>
       <c r="F32" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="G32" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="H32" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I32" t="n">
-        <v>131.9054712623426</v>
+        <v>131.9054712623428</v>
       </c>
       <c r="J32" t="n">
-        <v>404.50296419535</v>
+        <v>289.552246505788</v>
       </c>
       <c r="K32" t="n">
-        <v>640.7746145745708</v>
+        <v>525.8238968850088</v>
       </c>
       <c r="L32" t="n">
-        <v>933.8904894384714</v>
+        <v>818.9397717489095</v>
       </c>
       <c r="M32" t="n">
-        <v>1260.038377607259</v>
+        <v>1145.087659917697</v>
       </c>
       <c r="N32" t="n">
-        <v>1591.463679583736</v>
+        <v>1476.512961894174</v>
       </c>
       <c r="O32" t="n">
-        <v>1904.419194125029</v>
+        <v>1789.468476435467</v>
       </c>
       <c r="P32" t="n">
-        <v>2171.519485304298</v>
+        <v>2056.568767614735</v>
       </c>
       <c r="Q32" t="n">
-        <v>2918.599466273959</v>
+        <v>2803.648748584398</v>
       </c>
       <c r="R32" t="n">
-        <v>3035.2760505581</v>
+        <v>3035.276050558109</v>
       </c>
       <c r="S32" t="n">
-        <v>2994.809680772897</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="T32" t="n">
-        <v>2994.809680772897</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="U32" t="n">
-        <v>2735.738989294411</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="V32" t="n">
-        <v>2735.738989294411</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="W32" t="n">
-        <v>2735.738989294411</v>
+        <v>2994.809680772906</v>
       </c>
       <c r="X32" t="n">
-        <v>2316.596525873722</v>
+        <v>2575.667217352217</v>
       </c>
       <c r="Y32" t="n">
-        <v>2222.699523570699</v>
+        <v>2167.38109365187</v>
       </c>
     </row>
     <row r="33">
@@ -6755,34 +6755,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>556.070274528598</v>
+        <v>556.0702745285982</v>
       </c>
       <c r="C33" t="n">
-        <v>449.6138133652403</v>
+        <v>449.6138133652405</v>
       </c>
       <c r="D33" t="n">
-        <v>354.5235245117936</v>
+        <v>354.5235245117938</v>
       </c>
       <c r="E33" t="n">
-        <v>260.4031098387473</v>
+        <v>260.4031098387475</v>
       </c>
       <c r="F33" t="n">
-        <v>177.0192714549089</v>
+        <v>177.0192714549091</v>
       </c>
       <c r="G33" t="n">
-        <v>92.64817104456574</v>
+        <v>92.64817104456593</v>
       </c>
       <c r="H33" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="I33" t="n">
-        <v>94.92225718263811</v>
+        <v>94.92225718263833</v>
       </c>
       <c r="J33" t="n">
-        <v>188.8155965291052</v>
+        <v>188.8155965291054</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2942685832754</v>
+        <v>349.2942685832756</v>
       </c>
       <c r="L33" t="n">
         <v>565.0776474582979</v>
@@ -6806,7 +6806,7 @@
         <v>1690.150085695799</v>
       </c>
       <c r="S33" t="n">
-        <v>1645.529055095533</v>
+        <v>1645.529055095534</v>
       </c>
       <c r="T33" t="n">
         <v>1519.437499971186</v>
@@ -6815,16 +6815,16 @@
         <v>1343.167662795067</v>
       </c>
       <c r="V33" t="n">
-        <v>1144.050144857066</v>
+        <v>1144.050144857067</v>
       </c>
       <c r="W33" t="n">
-        <v>958.7273905902605</v>
+        <v>958.7273905902607</v>
       </c>
       <c r="X33" t="n">
-        <v>803.8599548291404</v>
+        <v>803.8599548291406</v>
       </c>
       <c r="Y33" t="n">
-        <v>677.3741756083612</v>
+        <v>677.3741756083614</v>
       </c>
     </row>
     <row r="34">
@@ -6837,46 +6837,46 @@
         <v>1105.790810685839</v>
       </c>
       <c r="C34" t="n">
-        <v>933.2290991690635</v>
+        <v>933.2290991690637</v>
       </c>
       <c r="D34" t="n">
-        <v>767.3511063705862</v>
+        <v>767.3511063705864</v>
       </c>
       <c r="E34" t="n">
-        <v>597.5931026213234</v>
+        <v>597.5931026213236</v>
       </c>
       <c r="F34" t="n">
-        <v>420.8860485830796</v>
+        <v>420.8860485830799</v>
       </c>
       <c r="G34" t="n">
-        <v>256.1448681955981</v>
+        <v>256.1448681955982</v>
       </c>
       <c r="H34" t="n">
-        <v>123.800807574914</v>
+        <v>123.8008075749141</v>
       </c>
       <c r="I34" t="n">
-        <v>60.705521011162</v>
+        <v>60.70552101116218</v>
       </c>
       <c r="J34" t="n">
-        <v>119.6111847133451</v>
+        <v>119.6111847133453</v>
       </c>
       <c r="K34" t="n">
-        <v>216.4112852809033</v>
+        <v>220.587059347972</v>
       </c>
       <c r="L34" t="n">
-        <v>758.4919686671623</v>
+        <v>762.667742734231</v>
       </c>
       <c r="M34" t="n">
-        <v>1348.580228186605</v>
+        <v>1352.756002253673</v>
       </c>
       <c r="N34" t="n">
-        <v>1918.337943148139</v>
+        <v>1922.513717215208</v>
       </c>
       <c r="O34" t="n">
-        <v>2455.773073721682</v>
+        <v>2459.948847788751</v>
       </c>
       <c r="P34" t="n">
-        <v>2904.049023869707</v>
+        <v>2908.224797936776</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.992069167432</v>
@@ -6894,7 +6894,7 @@
         <v>2329.402767300583</v>
       </c>
       <c r="V34" t="n">
-        <v>2042.447259171013</v>
+        <v>2042.447259171014</v>
       </c>
       <c r="W34" t="n">
         <v>1770.420854757305</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1289.887442417527</v>
+        <v>635.7574768324188</v>
       </c>
       <c r="C35" t="n">
-        <v>851.7449696009503</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D35" t="n">
-        <v>475.073981139747</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="F35" t="n">
         <v>47.20655154895472</v>
@@ -6937,13 +6937,13 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2319.861207662533</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T35" t="n">
-        <v>2319.861207662533</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U35" t="n">
-        <v>2060.790516184047</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V35" t="n">
-        <v>1698.173566117874</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W35" t="n">
-        <v>1698.173566117874</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.173566117874</v>
+        <v>1470.343171017673</v>
       </c>
       <c r="Y35" t="n">
-        <v>1289.887442417527</v>
+        <v>1062.057047317327</v>
       </c>
     </row>
     <row r="36">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.4827228154406</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C37" t="n">
-        <v>440.9210112986656</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D37" t="n">
-        <v>275.0430185001883</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E37" t="n">
-        <v>275.0430185001883</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>275.0430185001883</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I37" t="n">
         <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1030.274828676326</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M37" t="n">
-        <v>1160.879221014855</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N37" t="n">
-        <v>1288.378132818744</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O37" t="n">
-        <v>1825.813263392288</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
-        <v>2357.728535478036</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2115.481311381442</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1837.094679430185</v>
+        <v>1763.904651547471</v>
       </c>
       <c r="V37" t="n">
-        <v>1550.139171300616</v>
+        <v>1476.949143417901</v>
       </c>
       <c r="W37" t="n">
-        <v>1278.112766886907</v>
+        <v>1204.922739004193</v>
       </c>
       <c r="X37" t="n">
-        <v>1032.72101222032</v>
+        <v>959.5309843376053</v>
       </c>
       <c r="Y37" t="n">
-        <v>805.3013415344278</v>
+        <v>732.1113136517137</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1744.26120212753</v>
+        <v>1474.419173756936</v>
       </c>
       <c r="C38" t="n">
-        <v>1744.26120212753</v>
+        <v>1474.419173756936</v>
       </c>
       <c r="D38" t="n">
-        <v>1308.351417301975</v>
+        <v>1038.509388931381</v>
       </c>
       <c r="E38" t="n">
-        <v>874.5766724602698</v>
+        <v>604.7346440896758</v>
       </c>
       <c r="F38" t="n">
-        <v>446.7092428694776</v>
+        <v>176.8672144988836</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895472</v>
+        <v>176.8672144988836</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895472</v>
@@ -7174,10 +7174,10 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435801</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.324927422801</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867016</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447736</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W38" t="n">
-        <v>2148.556325916848</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X38" t="n">
-        <v>2148.556325916848</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y38" t="n">
-        <v>1744.26120212753</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="39">
@@ -7250,10 +7250,10 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J39" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K39" t="n">
         <v>335.7952991210683</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C40" t="n">
-        <v>452.8868849494278</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D40" t="n">
-        <v>287.0088921509505</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E40" t="n">
-        <v>287.0088921509505</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F40" t="n">
-        <v>110.3018381127067</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
         <v>47.20655154895472</v>
@@ -7335,19 +7335,19 @@
         <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>477.6707703898316</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>862.0820538119935</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M40" t="n">
-        <v>992.686446150523</v>
+        <v>897.93453696322</v>
       </c>
       <c r="N40" t="n">
-        <v>1120.185357954412</v>
+        <v>1467.692251924754</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498297</v>
       </c>
       <c r="P40" t="n">
         <v>2105.896438675981</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>913.2164539563237</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C41" t="n">
-        <v>475.073981139747</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D41" t="n">
-        <v>475.073981139747</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E41" t="n">
         <v>475.073981139747</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2110.419098207752</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U41" t="n">
-        <v>2110.419098207752</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V41" t="n">
-        <v>1747.802148141578</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W41" t="n">
-        <v>1747.802148141578</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X41" t="n">
-        <v>1747.802148141578</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="Y41" t="n">
-        <v>1339.516024441231</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="42">
@@ -7487,10 +7487,10 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043101</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
         <v>335.7952991210683</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.291841223631</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C43" t="n">
-        <v>919.7301297068562</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="D43" t="n">
-        <v>753.852136908379</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="E43" t="n">
         <v>584.0941331591162</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N43" t="n">
-        <v>1708.047382044526</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T43" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W43" t="n">
-        <v>1529.502214609206</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X43" t="n">
-        <v>1284.110459942618</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1326.330542644783</v>
+        <v>921.2588091910869</v>
       </c>
       <c r="C44" t="n">
-        <v>916.8910812162151</v>
+        <v>483.1163363745102</v>
       </c>
       <c r="D44" t="n">
-        <v>480.9812963906596</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="E44" t="n">
         <v>47.20655154895472</v>
@@ -7678,22 +7678,22 @@
         <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U44" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.473006065472</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W44" t="n">
-        <v>1745.473006065472</v>
+        <v>2174.986966797031</v>
       </c>
       <c r="X44" t="n">
-        <v>1326.330542644783</v>
+        <v>1755.844503376341</v>
       </c>
       <c r="Y44" t="n">
-        <v>1326.330542644783</v>
+        <v>1347.558379675995</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J45" t="n">
         <v>175.3166270668988</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.0748969752678</v>
+        <v>959.9477806029472</v>
       </c>
       <c r="C46" t="n">
-        <v>526.5131854584928</v>
+        <v>787.3860690861721</v>
       </c>
       <c r="D46" t="n">
-        <v>520.9988465953642</v>
+        <v>621.5080762876948</v>
       </c>
       <c r="E46" t="n">
-        <v>520.9988465953642</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F46" t="n">
-        <v>344.2917925571204</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G46" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895472</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895472</v>
@@ -7812,10 +7812,10 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N46" t="n">
         <v>1539.854607180194</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774551</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1567.667316986177</v>
       </c>
       <c r="X46" t="n">
-        <v>890.893515694255</v>
+        <v>1322.27556231959</v>
       </c>
       <c r="Y46" t="n">
-        <v>890.893515694255</v>
+        <v>1094.855891633698</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,13 +7993,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -8057,31 +8057,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,7 +8154,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -8218,28 +8218,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8309,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -8376,13 +8376,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8461,16 +8461,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -8534,25 +8534,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,7 +8850,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>105.0002374943208</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
@@ -8859,16 +8859,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>177.1920849464598</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9087,16 +9087,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>419.0018357134404</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9330,16 +9330,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371566</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1634641124954</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>158.2045317475395</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>398.8139624385781</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>444.9969971592895</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>221.2076397863611</v>
       </c>
       <c r="L23" t="n">
-        <v>504.0573744103849</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>327.6641564931142</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>242.7895305103175</v>
+        <v>242.789530510317</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>205.3884404029569</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>462.7423713628577</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>228.4796123184315</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10038,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>256.7604858289875</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.217953603100341</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>520.1607799332413</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>147.9700318325733</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>228.4796123184315</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10269,16 +10269,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>20.91758768940824</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>242.7895305103171</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.1118360500628</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>116.1118360500709</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>4.217953603099488</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10527,7 +10527,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.217953603100341</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>345.6096681853597</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>263.172203842287</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>444.9969971592897</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>311.3597349994973</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>264.6463123855401</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -11460,13 +11460,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="N46" t="n">
-        <v>141.4680432173438</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>154.2739012843315</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>81.56722465832155</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>77.94488786268943</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>24.26825404222416</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>278.2643867923347</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>37.03643413933406</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5660061336201</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>113.743809091021</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>172.6676326934665</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>209.8471281787988</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4475684644738</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.1683390918426</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23983,10 +23983,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>90.21474930742278</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>42.7383574476155</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24135,16 +24135,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>130.4154276550313</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>54.74153010489451</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>83.36570787755716</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.01100109528824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>3.520432755275351</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>14.70353953229011</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
@@ -24493,19 +24493,19 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>224.8909624024733</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -24688,7 +24688,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>239.3769210092867</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>54.76524561964101</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
@@ -24973,7 +24973,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>311.2452301833505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>280.5326294510693</v>
       </c>
       <c r="D35" t="n">
-        <v>58.64640840070865</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
         <v>395.5076644073176</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>140.4092215608044</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>67.95109395691685</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -25405,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>138.6602796210991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.061706087351</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -25456,10 +25456,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.951089911918018</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.2554364750584</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,13 +25681,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.30585065534521</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -25696,7 +25696,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>294.6492154448422</v>
       </c>
     </row>
     <row r="42">
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>136.3926684020054</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>149.4600229502525</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>28.41598127412891</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>257.3814015862295</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>56.34140261135408</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>158.7600173959952</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811444</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>312235.0932391479</v>
+        <v>312235.0932391477</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>312235.0932391478</v>
+        <v>312235.0932391479</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>312235.0932391477</v>
+        <v>312235.0932391479</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>312235.0932391478</v>
+        <v>312235.0932391479</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>418356.317655571</v>
+        <v>418356.3176555719</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>401348.5820387253</v>
+        <v>401348.5820387261</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>401348.5820387253</v>
+        <v>401348.5820387261</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>401348.5820387252</v>
+        <v>401348.5820387261</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>312235.0932391478</v>
+        <v>312235.0932391479</v>
       </c>
     </row>
     <row r="15">
@@ -26319,13 +26319,13 @@
         <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
         <v>251676.1140813077</v>
       </c>
       <c r="F2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813076</v>
       </c>
       <c r="G2" t="n">
         <v>251676.1140813077</v>
@@ -26334,16 +26334,16 @@
         <v>251676.1140813077</v>
       </c>
       <c r="I2" t="n">
-        <v>315383.2178068629</v>
+        <v>315383.2178068633</v>
       </c>
       <c r="J2" t="n">
-        <v>305173.0682063694</v>
+        <v>305173.0682063698</v>
       </c>
       <c r="K2" t="n">
-        <v>305173.0682063694</v>
+        <v>305173.0682063699</v>
       </c>
       <c r="L2" t="n">
-        <v>305173.0682063694</v>
+        <v>305173.0682063698</v>
       </c>
       <c r="M2" t="n">
         <v>251676.1140813077</v>
@@ -26352,10 +26352,10 @@
         <v>251676.1140813077</v>
       </c>
       <c r="O2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813076</v>
       </c>
       <c r="P2" t="n">
-        <v>251676.1140813077</v>
+        <v>251676.1140813076</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13845.60776629648</v>
+        <v>13845.60776629651</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>55857.2701548968</v>
+        <v>55857.27015489738</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>94704.93955986663</v>
+        <v>94704.93955986605</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>301646.5989996908</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="F4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="G4" t="n">
         <v>13837.47714308859</v>
@@ -26438,25 +26438,25 @@
         <v>13837.47714308859</v>
       </c>
       <c r="I4" t="n">
-        <v>44428.39204038422</v>
+        <v>44428.39204038446</v>
       </c>
       <c r="J4" t="n">
-        <v>39525.6763422593</v>
+        <v>39525.67634225955</v>
       </c>
       <c r="K4" t="n">
-        <v>39525.67634225929</v>
+        <v>39525.67634225956</v>
       </c>
       <c r="L4" t="n">
-        <v>39525.67634225932</v>
+        <v>39525.67634225954</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="O4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="P4" t="n">
         <v>13837.47714308861</v>
@@ -26490,16 +26490,16 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>58822.250186205</v>
+        <v>58822.25018620513</v>
       </c>
       <c r="J5" t="n">
-        <v>56310.29800091534</v>
+        <v>56310.29800091547</v>
       </c>
       <c r="K5" t="n">
-        <v>56310.29800091534</v>
+        <v>56310.29800091547</v>
       </c>
       <c r="L5" t="n">
-        <v>56310.29800091534</v>
+        <v>56310.29800091547</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77286.09696104984</v>
+        <v>77286.09696104979</v>
       </c>
       <c r="C6" t="n">
         <v>91131.70472734621</v>
       </c>
       <c r="D6" t="n">
-        <v>91131.70472734615</v>
+        <v>91131.70472734627</v>
       </c>
       <c r="E6" t="n">
-        <v>-347011.8942821699</v>
+        <v>-347565.7747253918</v>
       </c>
       <c r="F6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
       <c r="G6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
       <c r="H6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
       <c r="I6" t="n">
-        <v>156275.3054253769</v>
+        <v>155920.5096812968</v>
       </c>
       <c r="J6" t="n">
-        <v>209337.0938631948</v>
+        <v>208950.3914016137</v>
       </c>
       <c r="K6" t="n">
-        <v>209337.0938631948</v>
+        <v>208950.3914016138</v>
       </c>
       <c r="L6" t="n">
-        <v>209337.0938631947</v>
+        <v>208950.3914016137</v>
       </c>
       <c r="M6" t="n">
-        <v>97082.61616871465</v>
+        <v>96528.7357254933</v>
       </c>
       <c r="N6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
       <c r="O6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
       <c r="P6" t="n">
-        <v>191787.5557285813</v>
+        <v>191233.6752853593</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
         <v>590.081894361934</v>
@@ -26810,16 +26810,16 @@
         <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>800.1340156870524</v>
+        <v>800.1340156870546</v>
       </c>
       <c r="J4" t="n">
-        <v>758.819012639525</v>
+        <v>758.8190126395272</v>
       </c>
       <c r="K4" t="n">
-        <v>758.819012639525</v>
+        <v>758.8190126395272</v>
       </c>
       <c r="L4" t="n">
-        <v>758.819012639525</v>
+        <v>758.8190126395272</v>
       </c>
       <c r="M4" t="n">
         <v>590.081894361934</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>210.0521213251184</v>
+        <v>210.0521213251205</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>380.0297730368158</v>
+        <v>380.0297730368134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27460,16 +27460,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C3" t="n">
-        <v>105.3918965517241</v>
+        <v>69.00164186746204</v>
       </c>
       <c r="D3" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E3" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F3" t="n">
-        <v>82.55</v>
+        <v>41.23499695247265</v>
       </c>
       <c r="G3" t="n">
         <v>84.53123883647795</v>
@@ -27517,16 +27517,16 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V3" t="n">
-        <v>160.7360880743585</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W3" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X3" t="n">
-        <v>112.0037583559815</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y3" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>148.5854294842699</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -27557,7 +27557,7 @@
         <v>97.18814951900188</v>
       </c>
       <c r="I4" t="n">
-        <v>72.58673813049116</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>116.333951967456</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4620591368455</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -27712,7 +27712,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003292614422299778</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>21.5058801285734</v>
       </c>
       <c r="T6" t="n">
-        <v>87.56185418517705</v>
+        <v>92.48660254844231</v>
       </c>
       <c r="U6" t="n">
-        <v>138.1829268457693</v>
+        <v>174.5731815300314</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27760,10 +27760,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="7">
@@ -27782,7 +27782,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>152.8738121091899</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27827,7 +27827,7 @@
         <v>116.333951967456</v>
       </c>
       <c r="T7" t="n">
-        <v>228.234040354749</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -27937,16 +27937,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>57.7491312806502</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.21623578895061</v>
+        <v>84.53123883647795</v>
       </c>
       <c r="H9" t="n">
         <v>41.31829566194965</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>62.82088317610075</v>
+        <v>21.5058801285734</v>
       </c>
       <c r="T9" t="n">
         <v>128.8768572327044</v>
@@ -27991,13 +27991,13 @@
         <v>174.5731815300314</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28016,16 +28016,16 @@
         <v>129.52109135408</v>
       </c>
       <c r="D10" t="n">
-        <v>149.0326012679123</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>126.7454206642428</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.6203591769033</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -28067,16 +28067,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>234.3336676918984</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>254.1195287669911</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>201.6228340723943</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
@@ -32010,7 +32010,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.116681354841</v>
@@ -32019,19 +32019,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
@@ -32110,7 +32110,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
         <v>97.77787936116989</v>
@@ -32168,16 +32168,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R16" t="n">
         <v>37.84111043195198</v>
@@ -32189,7 +32189,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
@@ -32721,7 +32721,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.116681354841</v>
@@ -32730,19 +32730,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
         <v>191.6912126917232</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -32821,7 +32821,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
         <v>97.77787936116989</v>
@@ -32879,16 +32879,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
         <v>37.84111043195198</v>
@@ -32900,7 +32900,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -32958,7 +32958,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
         <v>316.116681354841</v>
@@ -32967,19 +32967,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,25 +33022,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
         <v>191.6912126917232</v>
@@ -33049,7 +33049,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
@@ -33058,7 +33058,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116989</v>
@@ -33116,16 +33116,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
         <v>37.84111043195198</v>
@@ -33137,7 +33137,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,13 +33174,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699058</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
@@ -33195,7 +33195,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
         <v>316.116681354841</v>
@@ -33204,19 +33204,19 @@
         <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
         <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,25 +33259,25 @@
         <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
         <v>191.6912126917232</v>
@@ -33286,7 +33286,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
@@ -33295,7 +33295,7 @@
         <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>97.77787936116989</v>
@@ -33353,16 +33353,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
         <v>37.84111043195198</v>
@@ -33374,7 +33374,7 @@
         <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33505,7 +33505,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646692</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108054</v>
@@ -34704,7 +34704,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="L2" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,13 +34713,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R2" t="n">
         <v>41.31500304752734</v>
@@ -34777,31 +34777,31 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="K3" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>13.31876740878121</v>
+      </c>
+      <c r="Q3" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="N3" t="n">
+      <c r="R3" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K4" t="n">
-        <v>41.31500304752736</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>39.64570999510201</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q4" t="n">
         <v>41.31500304752734</v>
@@ -34938,28 +34938,28 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K5" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="Q5" t="n">
         <v>41.31500304752734</v>
       </c>
-      <c r="M5" t="n">
-        <v>39.64570999510201</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>41.31500304752736</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>13.31876740878121</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35029,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>13.31876740878122</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Q6" t="n">
         <v>41.31500304752734</v>
@@ -35096,13 +35096,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>39.64570999510202</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>39.64570999510201</v>
       </c>
       <c r="Q7" t="n">
         <v>41.31500304752734</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>39.64570999510202</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35181,16 +35181,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>39.64570999510202</v>
       </c>
       <c r="Q8" t="n">
         <v>41.31500304752734</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>13.31876740878121</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>13.31876740878122</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>41.31500304752734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>41.31500304752734</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>39.64570999510202</v>
+      </c>
+      <c r="K10" t="n">
         <v>41.31500304752735</v>
-      </c>
-      <c r="K10" t="n">
-        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
         <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>39.64570999510201</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -35351,7 +35351,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35418,16 +35418,16 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916793</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35497,16 +35497,16 @@
         <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108057</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35570,7 +35570,7 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>202.7781168554907</v>
       </c>
       <c r="L13" t="n">
         <v>547.556245844706</v>
@@ -35579,16 +35579,16 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>305.9788645463482</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816031</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916797</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
         <v>217.963008964669</v>
@@ -35740,10 +35740,10 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35807,16 +35807,16 @@
         <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712365</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>547.7886153133289</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048098</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125705</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062837</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811313</v>
@@ -36050,16 +36050,16 @@
         <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N19" t="n">
-        <v>416.9502437123838</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>259.9914571795427</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
@@ -36138,13 +36138,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916787</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36208,7 +36208,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108056</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811313</v>
@@ -36281,25 +36281,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
-        <v>523.9359842752426</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>590.081894361934</v>
+        <v>576.9206257840667</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>459.8658724926448</v>
       </c>
       <c r="L23" t="n">
-        <v>800.1340156870523</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36372,16 +36372,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>530.2714241810613</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916776</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
         <v>217.963008964669</v>
@@ -36524,7 +36524,7 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893358</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,13 +36533,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>344.576455942321</v>
+        <v>344.5764559423205</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R25" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125709</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>444.0466731092406</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>758.819012639525</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>431.0868800063786</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K27" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
         <v>217.963008964669</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K28" t="n">
         <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>381.8825076656521</v>
       </c>
       <c r="M28" t="n">
         <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
         <v>542.8637682561043</v>
@@ -36773,10 +36773,10 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68994474517649</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125709</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>758.819012639525</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>444.0466731092406</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36846,13 +36846,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P29" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879471</v>
+        <v>431.0868800063786</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K30" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453262</v>
+        <v>80.41825809565381</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>367.9115523469817</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
         <v>575.5128433954892</v>
@@ -37007,13 +37007,13 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J32" t="n">
-        <v>275.3510029626337</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37083,16 +37083,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>754.6262434036989</v>
+        <v>754.6262434036994</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>233.9669716906169</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916783</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562336</v>
@@ -37153,7 +37153,7 @@
         <v>162.099668741586</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646692</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37162,7 +37162,7 @@
         <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>101.9958329642694</v>
       </c>
       <c r="L34" t="n">
         <v>547.556245844706</v>
@@ -37238,7 +37238,7 @@
         <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
@@ -37247,7 +37247,7 @@
         <v>452.8039900485101</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68994474517649</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027014</v>
@@ -37311,19 +37311,19 @@
         <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K37" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>470.7316900220243</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O37" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027014</v>
@@ -37542,13 +37542,13 @@
         <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125706</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766668</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -37703,22 +37703,22 @@
         <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>388.2942256789515</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>131.9236286247772</v>
+        <v>576.9206257840668</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
         <v>240.36368292423</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916797</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>440.1465145993857</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>383.6017480903499</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027014</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J45" t="n">
-        <v>94.8417569156242</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K45" t="n">
         <v>162.099668741586</v>
@@ -38180,13 +38180,13 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>309.1157135712365</v>
       </c>
       <c r="N46" t="n">
-        <v>270.2548228172323</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>118.9554357048098</v>
